--- a/Config/Excel/Server/MachineConfig.xlsx
+++ b/Config/Excel/Server/MachineConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityProject\Framework\Framework\Config\Excel\Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C99D8D93-0B16-4B9B-A9DA-F7D93599216A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A8146D-CF4D-4A81-8F9C-7703ACC7FD38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MachineConfig" sheetId="8" r:id="rId1"/>
@@ -573,7 +573,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
